--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="222">
   <si>
     <t>field: Partner</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Maphisa Hospital</t>
-  </si>
-  <si>
-    <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
   </si>
   <si>
     <t>Static</t>
@@ -703,10 +700,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1188,16 +1185,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1875,8 +1872,8 @@
   <sheetPr/>
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1981,11 +1978,9 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1996,13 +1991,11 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2013,13 +2006,11 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2030,13 +2021,11 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2047,13 +2036,11 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2064,11 +2051,9 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2081,11 +2066,9 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2098,11 +2081,9 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2115,11 +2096,9 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2132,11 +2111,9 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,11 +2126,9 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2166,11 +2141,9 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2183,11 +2156,9 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2200,11 +2171,9 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2217,11 +2186,9 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2234,13 +2201,11 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2251,13 +2216,11 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2265,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -2282,10 +2245,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -2299,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -2316,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -2333,10 +2296,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -2350,10 +2313,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -2367,10 +2330,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -2384,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -2401,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -2418,10 +2381,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -2435,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -2452,10 +2415,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -2469,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -2486,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -2503,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -2520,10 +2483,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -2537,10 +2500,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -2554,10 +2517,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -2571,10 +2534,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -2588,10 +2551,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -2605,10 +2568,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -2622,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -2639,10 +2602,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -2656,10 +2619,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -2673,10 +2636,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -2690,10 +2653,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -2707,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -2724,10 +2687,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -2741,10 +2704,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -2758,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -2775,10 +2738,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -2792,10 +2755,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -2809,10 +2772,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>7</v>
@@ -2826,10 +2789,10 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -2843,10 +2806,10 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -2860,10 +2823,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
@@ -2877,10 +2840,10 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>7</v>
@@ -2894,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -2911,10 +2874,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -2928,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -2945,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>7</v>
@@ -2962,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
@@ -2979,10 +2942,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>7</v>
@@ -2996,10 +2959,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
@@ -3013,10 +2976,10 @@
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>7</v>
@@ -3030,10 +2993,10 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
@@ -3047,10 +3010,10 @@
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
@@ -3064,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
@@ -3081,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>7</v>
@@ -3098,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>7</v>
@@ -3115,10 +3078,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>7</v>
@@ -3132,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
@@ -3149,10 +3112,10 @@
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>7</v>
@@ -3166,10 +3129,10 @@
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>7</v>
@@ -3183,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>7</v>
@@ -3200,10 +3163,10 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>7</v>
@@ -3217,10 +3180,10 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
@@ -3234,10 +3197,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
@@ -3251,10 +3214,10 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
@@ -3268,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
@@ -3285,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>7</v>
@@ -3302,10 +3265,10 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
@@ -3319,10 +3282,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>7</v>
@@ -3336,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>7</v>
@@ -3353,10 +3316,10 @@
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>7</v>
@@ -3370,10 +3333,10 @@
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>7</v>
@@ -3387,10 +3350,10 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>7</v>
@@ -3404,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>7</v>
@@ -3421,10 +3384,10 @@
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>7</v>
@@ -3438,10 +3401,10 @@
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>7</v>
@@ -3455,10 +3418,10 @@
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>7</v>
@@ -3472,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>7</v>
@@ -3489,10 +3452,10 @@
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>7</v>
@@ -3506,10 +3469,10 @@
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>7</v>
@@ -3523,10 +3486,10 @@
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>7</v>
@@ -3540,10 +3503,10 @@
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>7</v>
@@ -3557,10 +3520,10 @@
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>7</v>
@@ -3574,10 +3537,10 @@
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>7</v>
@@ -3591,10 +3554,10 @@
         <v>10</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>7</v>
@@ -3608,10 +3571,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>7</v>
@@ -3625,10 +3588,10 @@
         <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>7</v>
@@ -3642,10 +3605,10 @@
         <v>10</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>7</v>
@@ -3659,10 +3622,10 @@
         <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>7</v>
@@ -3676,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>7</v>
@@ -3693,10 +3656,10 @@
         <v>10</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>7</v>
@@ -3710,10 +3673,10 @@
         <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>7</v>
@@ -3727,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>7</v>
@@ -3744,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>7</v>
@@ -3761,16 +3724,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3778,10 +3741,10 @@
         <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>7</v>
@@ -3795,10 +3758,10 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>7</v>
@@ -3812,10 +3775,10 @@
         <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>7</v>
@@ -3829,10 +3792,10 @@
         <v>7</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>7</v>
@@ -3846,10 +3809,10 @@
         <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>7</v>
@@ -3863,10 +3826,10 @@
         <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>7</v>
@@ -3880,16 +3843,16 @@
         <v>7</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3897,10 +3860,10 @@
         <v>7</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>7</v>
@@ -3914,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>7</v>
@@ -3931,10 +3894,10 @@
         <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>7</v>
@@ -3948,16 +3911,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3965,16 +3928,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3982,16 +3945,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3999,16 +3962,16 @@
         <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4016,16 +3979,16 @@
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4033,16 +3996,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4050,10 +4013,10 @@
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>7</v>
@@ -4067,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>7</v>
@@ -4084,10 +4047,10 @@
         <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>7</v>
@@ -4101,10 +4064,10 @@
         <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>7</v>
@@ -4118,10 +4081,10 @@
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>7</v>
@@ -4135,10 +4098,10 @@
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>7</v>
@@ -4152,10 +4115,10 @@
         <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>7</v>
@@ -4169,10 +4132,10 @@
         <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>7</v>
@@ -4186,10 +4149,10 @@
         <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>7</v>
@@ -4203,10 +4166,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>7</v>
@@ -4220,10 +4183,10 @@
         <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>7</v>
@@ -4237,10 +4200,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>7</v>
@@ -4254,10 +4217,10 @@
         <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>7</v>
@@ -4271,10 +4234,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>7</v>
@@ -4288,10 +4251,10 @@
         <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>7</v>
@@ -4305,10 +4268,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>7</v>
@@ -4322,10 +4285,10 @@
         <v>7</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>7</v>
@@ -4339,10 +4302,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>7</v>
@@ -4356,10 +4319,10 @@
         <v>7</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>7</v>
@@ -4373,10 +4336,10 @@
         <v>7</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>7</v>
@@ -4393,13 +4356,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4410,13 +4373,13 @@
         <v>9</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4427,13 +4390,13 @@
         <v>9</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4444,13 +4407,13 @@
         <v>9</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4461,13 +4424,13 @@
         <v>9</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4478,13 +4441,13 @@
         <v>9</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4495,13 +4458,13 @@
         <v>9</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4512,13 +4475,13 @@
         <v>9</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4529,13 +4492,13 @@
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4546,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4563,13 +4526,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4580,13 +4543,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4597,13 +4560,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4614,13 +4577,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4631,13 +4594,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" ht="15" spans="1:5">
@@ -4645,16 +4608,16 @@
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:5">
@@ -4662,16 +4625,16 @@
         <v>5</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" ht="15" spans="1:5">
@@ -4679,16 +4642,16 @@
         <v>5</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:5">
@@ -4696,16 +4659,16 @@
         <v>5</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" ht="15" spans="1:5">
@@ -4713,16 +4676,16 @@
         <v>5</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:5">
@@ -4730,16 +4693,16 @@
         <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:5">
@@ -4747,16 +4710,16 @@
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:5">
@@ -4764,16 +4727,16 @@
         <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:5">
@@ -4781,16 +4744,16 @@
         <v>5</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:5">
@@ -4798,16 +4761,16 @@
         <v>5</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:5">
@@ -4815,16 +4778,16 @@
         <v>5</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:5">
@@ -4832,16 +4795,16 @@
         <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" ht="15" spans="1:5">
@@ -4849,16 +4812,16 @@
         <v>5</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:5">
@@ -4866,16 +4829,16 @@
         <v>5</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" ht="15" spans="1:5">
@@ -4883,16 +4846,16 @@
         <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:5">
@@ -4900,16 +4863,16 @@
         <v>5</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:5">
@@ -4917,16 +4880,16 @@
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:5">
@@ -4934,16 +4897,16 @@
         <v>5</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:5">
@@ -4951,16 +4914,16 @@
         <v>5</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:5">
@@ -4968,16 +4931,16 @@
         <v>5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:5">
@@ -4985,16 +4948,16 @@
         <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:5">
@@ -5002,16 +4965,16 @@
         <v>5</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:5">
@@ -5019,16 +4982,16 @@
         <v>5</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:5">
@@ -5036,16 +4999,16 @@
         <v>5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:5">
@@ -5053,16 +5016,16 @@
         <v>5</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:5">
@@ -5070,16 +5033,16 @@
         <v>5</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:5">
@@ -5087,16 +5050,16 @@
         <v>5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" ht="15" spans="1:5">
@@ -5104,16 +5067,16 @@
         <v>5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" ht="15" spans="1:5">
@@ -5121,16 +5084,16 @@
         <v>5</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:5">
@@ -5138,16 +5101,16 @@
         <v>5</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:5">
@@ -5155,16 +5118,16 @@
         <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E193" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:5">
@@ -5172,16 +5135,16 @@
         <v>5</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:5">
@@ -5189,16 +5152,16 @@
         <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:5">
@@ -5206,16 +5169,16 @@
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:5">
@@ -5223,16 +5186,16 @@
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" ht="15" spans="1:5">
@@ -5240,16 +5203,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" ht="15" spans="1:5">
@@ -5257,16 +5220,16 @@
         <v>5</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:5">
@@ -5274,16 +5237,16 @@
         <v>5</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:5">
@@ -5291,16 +5254,16 @@
         <v>5</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:5">
@@ -5308,16 +5271,16 @@
         <v>5</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:5">
@@ -5325,16 +5288,16 @@
         <v>5</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:5">
@@ -5342,16 +5305,16 @@
         <v>5</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:5">
@@ -5359,16 +5322,16 @@
         <v>5</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
